--- a/biology/Histoire de la zoologie et de la botanique/William_Francis_de_Vismes_Kane/William_Francis_de_Vismes_Kane.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Francis_de_Vismes_Kane/William_Francis_de_Vismes_Kane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir William Francis de Vismes Kane, Esq. (1840 à Exmouth, Devon - 1918) est un entomologiste irlandais.
 Né à Exmouth d’une mère française, Kane a vécu à Drumreaske House à Monaghan.
@@ -514,7 +526,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>A catalogue of the Lepidoptera of Ireland. London.West Newman &amp; Co.. 166pp. Fine coloured frontis of 15 espèces de Lepidoptères irlandais (1901).
 European Butterflies Macmillan 184pp (1885).</t>
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anonym 1918: [Kane, W. F. V.] - Ent. Rec. J. Var. 30 157
 Anonym 1919: [Kane, W. F. V.] - Ent. News 30 209
